--- a/Excel Table to SQL/Data.xlsx
+++ b/Excel Table to SQL/Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\100. Projects\1. MicoProjects\Dict From Excel Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\100. Projects\1. MicoProjects\Excel Table to SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7692378B-E267-4EFE-BB5B-CD74CE6CCD83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA9B1F5-EA28-499B-A8AD-EEAE8C61A829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2055" yWindow="5400" windowWidth="14895" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15450" yWindow="1335" windowWidth="14895" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1320,7 +1320,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1339,20 +1339,130 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1363,6 +1473,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4D381452-8EB2-4843-8AC4-22B3070133E0}" name="Table2" displayName="Table2" ref="A1:C502" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+  <autoFilter ref="A1:C502" xr:uid="{4D381452-8EB2-4843-8AC4-22B3070133E0}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{DADD7F85-BB8D-4888-95A6-A4597AF86C2B}" name="CATEGORY" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{FED6FCD6-273E-4BC4-B1B0-507DAFE1DD53}" name="COMMODITY" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{0568FDF4-5A19-4ECF-AAD9-A03E3A421D22}" name="SUB COMMODITY" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1631,13 +1753,13 @@
   <dimension ref="A1:C502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B377" sqref="B377"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="28.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -7152,13 +7274,13 @@
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A502" s="2" t="s">
+      <c r="A502" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="B502" s="2" t="s">
+      <c r="B502" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="C502" s="2" t="s">
+      <c r="C502" s="4" t="s">
         <v>411</v>
       </c>
     </row>
@@ -7167,6 +7289,9 @@
     <sortCondition ref="A2:A502"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
